--- a/data/trans_camb/P34_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P34_R-Estudios-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>10.04453423617712</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>12.10793505550512</v>
+        <v>12.1079350555051</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.977092029356538</v>
+        <v>-6.801835267901632</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.379243107505296</v>
+        <v>3.755281482043755</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.291215562476973</v>
+        <v>-0.585573629355858</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.6947739485478479</v>
+        <v>0.6512583515030983</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>7.441437587552818</v>
+        <v>7.449462647380131</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>14.39721986414164</v>
+        <v>14.49196156110133</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.213918721134541</v>
+        <v>-1.364939624748269</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>6.954829836096666</v>
+        <v>6.910639668447971</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>9.095142690220877</v>
+        <v>9.286213739560758</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.985946967763865</v>
+        <v>1.678713400449572</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>12.7747186447121</v>
+        <v>12.86411537323543</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.8483260438106</v>
+        <v>8.720634731340713</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.268821840456368</v>
+        <v>8.320354343420023</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>15.38272759797371</v>
+        <v>15.71603467398397</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>22.1590428807353</v>
+        <v>22.05544609330818</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>4.232074060275757</v>
+        <v>4.269787311872013</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>13.28124296692165</v>
+        <v>13.11153979671691</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>15.05002275360324</v>
+        <v>14.88792073984208</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.2989548759691869</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.3603677520182504</v>
+        <v>0.3603677520182499</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1778965347699293</v>
+        <v>-0.1734747084301276</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.09034298695964953</v>
+        <v>0.08919747137308275</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.03299153199734345</v>
+        <v>-0.01578743076009907</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.0207841312601847</v>
+        <v>0.02171300776988616</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2350911148510947</v>
+        <v>0.2299446306940237</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4313111636693081</v>
+        <v>0.445123040157515</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.03469819144376967</v>
+        <v>-0.03888244319628925</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1992892915266972</v>
+        <v>0.198809288317694</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.2609244230401914</v>
+        <v>0.2659581939083517</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.05987538766374299</v>
+        <v>0.04977826986517897</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.3739735457762182</v>
+        <v>0.3639469677231283</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.2560536416860571</v>
+        <v>0.2516564873515545</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.2833880100213491</v>
+        <v>0.2882797750538995</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5277384616117414</v>
+        <v>0.5539112484403546</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7538983535645216</v>
+        <v>0.7634655432209487</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1316109313093837</v>
+        <v>0.1314629361531413</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4096704415463581</v>
+        <v>0.4055619627158811</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.4750386777946021</v>
+        <v>0.4642483737347836</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-4.627179181963176</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-6.101147447214323</v>
+        <v>-6.101147447214311</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-3.159369019487202</v>
@@ -869,7 +869,7 @@
         <v>-1.510963631790396</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-0.5623070391200524</v>
+        <v>-0.562307039120058</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-5.295615819998645</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-10.70259526150488</v>
+        <v>-10.4681989999091</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-8.050051995691163</v>
+        <v>-7.621511957759592</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-9.18829382642053</v>
+        <v>-9.191454939884942</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-6.130048573154985</v>
+        <v>-6.312872184730106</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-4.548322255360708</v>
+        <v>-4.442447509942956</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-3.18564105667463</v>
+        <v>-3.385657907129786</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-7.442269865201381</v>
+        <v>-7.49419041831953</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-5.385706346485286</v>
+        <v>-5.428427606486474</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-5.599279410047809</v>
+        <v>-5.561675741032189</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-4.136894189393241</v>
+        <v>-4.397227125169585</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-1.540366592255049</v>
+        <v>-1.482743589808127</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-2.949701107680475</v>
+        <v>-2.942036279376942</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-0.4059391674159111</v>
+        <v>-0.254271483535668</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.010286916622518</v>
+        <v>1.537760274321802</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.38391433465673</v>
+        <v>2.49118295203577</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-3.064346062618963</v>
+        <v>-3.110067188449245</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-1.011220905943467</v>
+        <v>-0.9074876579584119</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-1.274434898808038</v>
+        <v>-1.129748652839526</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.1296071502310615</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.1708929571725535</v>
+        <v>-0.1708929571725532</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.1191848311678242</v>
@@ -974,7 +974,7 @@
         <v>-0.05699997190733054</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.0212126121097688</v>
+        <v>-0.02121261210976901</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.1694623472682842</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2862257526781999</v>
+        <v>-0.2804622258522073</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2147233549165665</v>
+        <v>-0.2026091028410092</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.246805953944535</v>
+        <v>-0.2468951626603507</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2200414842901453</v>
+        <v>-0.2223470539964367</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1592337125126538</v>
+        <v>-0.1554234700471317</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1160782593192991</v>
+        <v>-0.1177914944900514</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2299915668943417</v>
+        <v>-0.2302093525384505</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1678980132269292</v>
+        <v>-0.1663846634635503</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1707034332109824</v>
+        <v>-0.1713111442928509</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.1198641212501034</v>
+        <v>-0.1308080643980403</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.0452623904904785</v>
+        <v>-0.04359724031442575</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.08680817619615733</v>
+        <v>-0.0858888671927102</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.01611944265006076</v>
+        <v>-0.009597702596101997</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.04190836399445142</v>
+        <v>0.06305078288520419</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.0952814438045427</v>
+        <v>0.1009451099194646</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.1012142427815</v>
+        <v>-0.1029067810064081</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.03511710048785061</v>
+        <v>-0.02858188986771414</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.04185207584418153</v>
+        <v>-0.0380539430518344</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-13.67269328597869</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-4.607739194659144</v>
+        <v>-4.60773919465915</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-12.96421758158353</v>
@@ -1092,7 +1092,7 @@
         <v>-9.517187056145227</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-3.324782762013279</v>
+        <v>-3.324782762013284</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-18.2072529519761</v>
+        <v>-18.39180957755176</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-10.72806117054725</v>
+        <v>-11.38580147416399</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-7.457137313480526</v>
+        <v>-7.98210224944363</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-20.00782585132905</v>
+        <v>-20.57946514235392</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-19.64969264306438</v>
+        <v>-19.29132072208774</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-10.3345269700443</v>
+        <v>-10.4232134551355</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-17.89732623542001</v>
+        <v>-17.53897234771441</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-13.79225079341821</v>
+        <v>-13.7827958671431</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-7.79039608241203</v>
+        <v>-7.332336568258381</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-5.130368203003301</v>
+        <v>-5.605571657078961</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.792337566133966</v>
+        <v>1.034490109865458</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.12386918939187</v>
+        <v>4.740683209517153</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-6.811834571248715</v>
+        <v>-7.026743999408823</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-7.785570803801171</v>
+        <v>-7.292046733676982</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.06780206578031</v>
+        <v>0.892279233843647</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-8.444552494739851</v>
+        <v>-8.640346464113886</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-5.198243064176808</v>
+        <v>-4.929205316732033</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.6844064853939935</v>
+        <v>0.7468772140832971</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.2854265953266873</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.09618963016113263</v>
+        <v>-0.09618963016113274</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.2602858555628547</v>
@@ -1197,7 +1197,7 @@
         <v>-0.1910789571273077</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.06675249935642881</v>
+        <v>-0.06675249935642892</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.334333836731216</v>
+        <v>-0.340700840429027</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.199553884288598</v>
+        <v>-0.208804872709674</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.13533220850065</v>
+        <v>-0.1453918204998203</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3938201864550343</v>
+        <v>-0.3933136069936352</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3828206093175577</v>
+        <v>-0.3790338532713496</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1986743958309722</v>
+        <v>-0.1998014192819886</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3480290648525762</v>
+        <v>-0.3398597146529952</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2677059832287764</v>
+        <v>-0.2655445377993359</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1497045461021637</v>
+        <v>-0.1385749330763616</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.106882966135468</v>
+        <v>-0.1171757008651652</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.03585386896607892</v>
+        <v>0.02150005684575516</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.08929670586135494</v>
+        <v>0.09900455647081495</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.1561084548049727</v>
+        <v>-0.1563429729640841</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.1705148646261029</v>
+        <v>-0.1585545892848106</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02716028946964009</v>
+        <v>0.02139550098176627</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.1788160717296929</v>
+        <v>-0.1779891860204929</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.1081231504277568</v>
+        <v>-0.1038884377587961</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.01422416360154874</v>
+        <v>0.01574349958215221</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-2.047897880491778</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-3.230172498737799</v>
+        <v>-3.230172498737793</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-1.942347164046226</v>
@@ -1297,7 +1297,7 @@
         <v>0.07368808041137154</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>3.213277678140986</v>
+        <v>3.21327767814098</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-4.487590216184651</v>
@@ -1306,7 +1306,7 @@
         <v>-0.9887356004867565</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.03806671660226968</v>
+        <v>0.03806671660226413</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-9.49046770145733</v>
+        <v>-9.565858370011233</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.521033922104294</v>
+        <v>-4.398333707601312</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-5.772819603361953</v>
+        <v>-5.587047973121958</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-4.197824678582572</v>
+        <v>-3.95314011605966</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.989383776754916</v>
+        <v>-2.150173061674829</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.9847936217948809</v>
+        <v>1.088301361701136</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-6.009752328510091</v>
+        <v>-6.08685926375244</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.702786712558909</v>
+        <v>-2.598978702129227</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.719279611665164</v>
+        <v>-1.496792570545784</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-4.568964597827805</v>
+        <v>-4.800907218708568</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1610810109718524</v>
+        <v>0.4556342777623517</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.7256199017399397</v>
+        <v>-0.7439868809149671</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3052606544103463</v>
+        <v>0.4825524536567981</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.397926262666542</v>
+        <v>2.302381203218371</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>5.193498398108187</v>
+        <v>5.314803853978049</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-2.832083074327207</v>
+        <v>-2.806945393545739</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.6369021749326784</v>
+        <v>0.8345790827554147</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.541070216406457</v>
+        <v>1.675654519974407</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.05282514852002719</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.08332170447393392</v>
+        <v>-0.08332170447393378</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.06213904696603809</v>
@@ -1402,7 +1402,7 @@
         <v>0.002357409207930057</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1027983134286763</v>
+        <v>0.1027983134286761</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.1283997146370938</v>
@@ -1411,7 +1411,7 @@
         <v>-0.02828987559875083</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.001089171540501779</v>
+        <v>0.00108917154050162</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2369805745613985</v>
+        <v>-0.2387894140078089</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.113587070914456</v>
+        <v>-0.1103972693000307</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1447967646937934</v>
+        <v>-0.1396218574069505</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1301292713457402</v>
+        <v>-0.1227099170267365</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.06155998321124685</v>
+        <v>-0.06616632332267559</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0306752692107615</v>
+        <v>0.033223593683864</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1679846133736203</v>
+        <v>-0.1704458804905226</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.07522356061203</v>
+        <v>-0.07245014076047966</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.04788223809582365</v>
+        <v>-0.04228534205275685</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.1220122635464742</v>
+        <v>-0.1281595444640732</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.003820466097294657</v>
+        <v>0.0119732249302534</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.01739750296045341</v>
+        <v>-0.01983581753003469</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.009311040801613607</v>
+        <v>0.0164272525013227</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.08110897573366135</v>
+        <v>0.07655546048425797</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1739743161536153</v>
+        <v>0.1753092029082287</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.08149412492654676</v>
+        <v>-0.08205018943265255</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.01881277641644066</v>
+        <v>0.02440562926790862</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.04479883598983933</v>
+        <v>0.04881178653797878</v>
       </c>
     </row>
     <row r="28">
